--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43921,6 +43921,41 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43956,6 +43956,43 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43993,6 +43993,43 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44030,6 +44030,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44067,6 +44067,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44104,6 +44104,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44141,6 +44141,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44178,6 +44178,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44215,6 +44215,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44252,6 +44252,43 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44289,6 +44289,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44326,6 +44326,43 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44363,6 +44363,80 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44437,6 +44437,80 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44511,6 +44511,43 @@
         </is>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44548,6 +44548,43 @@
         </is>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44585,6 +44585,43 @@
         </is>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44622,6 +44622,43 @@
         </is>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44659,6 +44659,80 @@
         </is>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44733,6 +44733,43 @@
         </is>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1236" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44770,6 +44770,43 @@
         </is>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1237" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1988"/>
+  <dimension ref="A1:I1989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71092,6 +71092,43 @@
         </is>
       </c>
     </row>
+    <row r="1989">
+      <c r="A1989" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1989" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1989" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1989" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1989" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1989" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1989" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1989" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1989"/>
+  <dimension ref="A1:I1990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71129,6 +71129,43 @@
         </is>
       </c>
     </row>
+    <row r="1990">
+      <c r="A1990" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1990" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1990" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1990" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1990" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1990" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1990" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1990" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1990"/>
+  <dimension ref="A1:I1991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71166,6 +71166,43 @@
         </is>
       </c>
     </row>
+    <row r="1991">
+      <c r="A1991" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1991" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1991" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1991" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1991" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1991" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1991" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1991" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1991"/>
+  <dimension ref="A1:I1992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71203,6 +71203,43 @@
         </is>
       </c>
     </row>
+    <row r="1992">
+      <c r="A1992" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1992" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1992" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1992" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1992" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1992" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1992" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1992" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1992"/>
+  <dimension ref="A1:I1993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71240,6 +71240,43 @@
         </is>
       </c>
     </row>
+    <row r="1993">
+      <c r="A1993" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1993" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1993" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1993" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1993" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1993" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1993" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1993" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1993"/>
+  <dimension ref="A1:I1994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71277,6 +71277,41 @@
         </is>
       </c>
     </row>
+    <row r="1994">
+      <c r="A1994" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1994" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1994" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1994" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F1994" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1994" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H1994" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1994" t="n">
+        <v>26900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1994"/>
+  <dimension ref="A1:I1995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71312,6 +71312,43 @@
         <v>26900</v>
       </c>
     </row>
+    <row r="1995">
+      <c r="A1995" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1995" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1995" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1995" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1995" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1995" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1995" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1995" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1995"/>
+  <dimension ref="A1:I1996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71349,6 +71349,43 @@
         </is>
       </c>
     </row>
+    <row r="1996">
+      <c r="A1996" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1996" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1996" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1996" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1996" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1996" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1996" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1996" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1996"/>
+  <dimension ref="A1:I1997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71386,6 +71386,43 @@
         </is>
       </c>
     </row>
+    <row r="1997">
+      <c r="A1997" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1997" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1997" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1997" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1997" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1997" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1997" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1997" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1997"/>
+  <dimension ref="A1:I1998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71423,6 +71423,41 @@
         </is>
       </c>
     </row>
+    <row r="1998">
+      <c r="A1998" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1998" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1998" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1998" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1998" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1998" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1998" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1998" t="n">
+        <v>193400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1998"/>
+  <dimension ref="A1:I1999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71458,6 +71458,43 @@
         <v>193400</v>
       </c>
     </row>
+    <row r="1999">
+      <c r="A1999" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1999" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E1999" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1999" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1999" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1999" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1999" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1999"/>
+  <dimension ref="A1:I2000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71495,6 +71495,43 @@
         </is>
       </c>
     </row>
+    <row r="2000">
+      <c r="A2000" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2000" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2000" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2000" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2000" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2000" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2000"/>
+  <dimension ref="A1:I2001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71532,6 +71532,43 @@
         </is>
       </c>
     </row>
+    <row r="2001">
+      <c r="A2001" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2001" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2001" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2001" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2001" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2001" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2001" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2001" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2001"/>
+  <dimension ref="A1:I2002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71569,6 +71569,43 @@
         </is>
       </c>
     </row>
+    <row r="2002">
+      <c r="A2002" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2002" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2002" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2002" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2002" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2002" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2002" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2002" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2002"/>
+  <dimension ref="A1:I2003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71606,6 +71606,43 @@
         </is>
       </c>
     </row>
+    <row r="2003">
+      <c r="A2003" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2003" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2003" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2003" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2003" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2003" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2003" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2003" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2475"/>
+  <dimension ref="A1:I2476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88163,6 +88163,43 @@
         </is>
       </c>
     </row>
+    <row r="2476">
+      <c r="A2476" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2476" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2476" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2476" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2476" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2476" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2476" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2476" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2476"/>
+  <dimension ref="A1:I2477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88200,6 +88200,43 @@
         </is>
       </c>
     </row>
+    <row r="2477">
+      <c r="A2477" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2477" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2477" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2477" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2477" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2477" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2477" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2477" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2477" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2477"/>
+  <dimension ref="A1:I2478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88237,6 +88237,43 @@
         </is>
       </c>
     </row>
+    <row r="2478">
+      <c r="A2478" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2478" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2478" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2478" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2478" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2478" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2478" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2478" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2478" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2478"/>
+  <dimension ref="A1:I2479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88274,6 +88274,43 @@
         </is>
       </c>
     </row>
+    <row r="2479">
+      <c r="A2479" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2479" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2479" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2479" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2479" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2479" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2479" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2479" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2479" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2479"/>
+  <dimension ref="A1:I2480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88311,6 +88311,41 @@
         </is>
       </c>
     </row>
+    <row r="2480">
+      <c r="A2480" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2480" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2480" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2480" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2480" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F2480" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G2480" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H2480" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I2480" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2480"/>
+  <dimension ref="A1:I2481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88346,6 +88346,43 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2481">
+      <c r="A2481" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2481" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2481" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2481" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2481" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F2481" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G2481" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H2481" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I2481" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2481"/>
+  <dimension ref="A1:I2482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88383,6 +88383,43 @@
         </is>
       </c>
     </row>
+    <row r="2482">
+      <c r="A2482" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2482" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2482" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2482" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2482" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F2482" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G2482" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H2482" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I2482" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2482"/>
+  <dimension ref="A1:I2483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88420,6 +88420,43 @@
         </is>
       </c>
     </row>
+    <row r="2483">
+      <c r="A2483" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2483" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2483" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2483" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2483" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F2483" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G2483" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H2483" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I2483" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2483"/>
+  <dimension ref="A1:I2484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88457,6 +88457,43 @@
         </is>
       </c>
     </row>
+    <row r="2484">
+      <c r="A2484" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2484" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2484" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2484" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2484" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F2484" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G2484" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H2484" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I2484" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2484"/>
+  <dimension ref="A1:I2485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88494,6 +88494,43 @@
         </is>
       </c>
     </row>
+    <row r="2485">
+      <c r="A2485" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2485" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2485" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2485" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2485" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F2485" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G2485" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H2485" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I2485" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2485"/>
+  <dimension ref="A1:I2487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88531,6 +88531,80 @@
         </is>
       </c>
     </row>
+    <row r="2486">
+      <c r="A2486" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2486" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2486" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2486" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2486" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F2486" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G2486" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H2486" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I2486" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2487">
+      <c r="A2487" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2487" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2487" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2487" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2487" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F2487" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G2487" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H2487" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I2487" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2487"/>
+  <dimension ref="A1:I2488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88605,6 +88605,43 @@
         </is>
       </c>
     </row>
+    <row r="2488">
+      <c r="A2488" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2488" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2488" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2488" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2488" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F2488" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G2488" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H2488" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I2488" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2488"/>
+  <dimension ref="A1:I2491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88642,6 +88642,117 @@
         </is>
       </c>
     </row>
+    <row r="2489">
+      <c r="A2489" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2489" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2489" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2489" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2489" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F2489" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G2489" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H2489" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I2489" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2490">
+      <c r="A2490" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2490" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2490" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2490" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2490" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F2490" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G2490" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H2490" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I2490" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="A2491" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2491" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2491" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2491" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2491" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F2491" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G2491" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H2491" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I2491" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2491"/>
+  <dimension ref="A1:I2492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88753,6 +88753,43 @@
         </is>
       </c>
     </row>
+    <row r="2492">
+      <c r="A2492" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2492" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2492" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2492" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F2492" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G2492" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H2492" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I2492" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2492"/>
+  <dimension ref="A1:I2493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88790,6 +88790,43 @@
         </is>
       </c>
     </row>
+    <row r="2493">
+      <c r="A2493" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2493" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2493" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2493" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F2493" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G2493" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H2493" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I2493" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7227.xlsx
+++ b/data/7227.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2493"/>
+  <dimension ref="A1:I2496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88827,6 +88827,117 @@
         </is>
       </c>
     </row>
+    <row r="2494">
+      <c r="A2494" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2494" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2494" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2494" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2494" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F2494" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G2494" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H2494" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I2494" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2495">
+      <c r="A2495" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2495" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2495" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2495" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2495" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F2495" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G2495" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H2495" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I2495" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2496">
+      <c r="A2496" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2496" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2496" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="D2496" t="inlineStr">
+        <is>
+          <t>UMSNGB</t>
+        </is>
+      </c>
+      <c r="E2496" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F2496" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G2496" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H2496" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I2496" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
